--- a/uploads/eo_models.xlsx
+++ b/uploads/eo_models.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -484,6 +487,21 @@
   </si>
   <si>
     <t>Самосвалы NTE240</t>
+  </si>
+  <si>
+    <t>Самосвалы CAT 777D</t>
+  </si>
+  <si>
+    <t>Самосвалы БелАЗ-74131</t>
+  </si>
+  <si>
+    <t>Самосвалы БелАЗ-74306</t>
+  </si>
+  <si>
+    <t>Самосвалы БелАЗ-7648</t>
+  </si>
+  <si>
+    <t>Самосвалы БелАЗ-76470</t>
   </si>
 </sst>
 </file>
@@ -502,8 +520,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -848,16 +864,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,6 +2696,9 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>139</v>
+      </c>
       <c r="B131">
         <v>145</v>
       </c>
@@ -2691,7 +2709,51 @@
         <v>69</v>
       </c>
     </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>146</v>
+      </c>
+      <c r="C132" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>147</v>
+      </c>
+      <c r="C133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>148</v>
+      </c>
+      <c r="C134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>149</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>150</v>
+      </c>
+      <c r="C136" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/uploads/eo_models.xlsx
+++ b/uploads/eo_models.xlsx
@@ -9,20 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21960" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -502,6 +499,18 @@
   </si>
   <si>
     <t>Самосвалы БелАЗ-76470</t>
+  </si>
+  <si>
+    <t>Тягач-буксировщик</t>
+  </si>
+  <si>
+    <t>Поливооросительная машина</t>
+  </si>
+  <si>
+    <t>Каток дорожный</t>
+  </si>
+  <si>
+    <t>Каток дорожный ДМ62</t>
   </si>
 </sst>
 </file>
@@ -520,6 +529,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -864,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,6 +2721,9 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>140</v>
+      </c>
       <c r="B132">
         <v>146</v>
       </c>
@@ -2721,39 +2735,73 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>141</v>
+      </c>
       <c r="B133">
         <v>147</v>
       </c>
       <c r="C133" t="s">
         <v>156</v>
       </c>
+      <c r="D133" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>142</v>
+      </c>
       <c r="B134">
         <v>148</v>
       </c>
       <c r="C134" t="s">
         <v>157</v>
       </c>
+      <c r="D134" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>143</v>
+      </c>
       <c r="B135">
         <v>149</v>
       </c>
       <c r="C135" t="s">
         <v>158</v>
       </c>
+      <c r="D135" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>144</v>
+      </c>
       <c r="B136">
         <v>150</v>
       </c>
       <c r="C136" t="s">
         <v>159</v>
       </c>
+      <c r="D136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>151</v>
+      </c>
+      <c r="C137" t="s">
+        <v>163</v>
+      </c>
+      <c r="D137" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/uploads/eo_models.xlsx
+++ b/uploads/eo_models.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -492,25 +492,34 @@
     <t>Самосвалы БелАЗ-74131</t>
   </si>
   <si>
+    <t>Тягач-буксировщик</t>
+  </si>
+  <si>
     <t>Самосвалы БелАЗ-74306</t>
   </si>
   <si>
     <t>Самосвалы БелАЗ-7648</t>
   </si>
   <si>
+    <t>Поливооросительная машина</t>
+  </si>
+  <si>
     <t>Самосвалы БелАЗ-76470</t>
   </si>
   <si>
-    <t>Тягач-буксировщик</t>
-  </si>
-  <si>
-    <t>Поливооросительная машина</t>
+    <t>Каток дорожный ДМ62</t>
   </si>
   <si>
     <t>Каток дорожный</t>
   </si>
   <si>
-    <t>Каток дорожный ДМ62</t>
+    <t>Кран-трубоукладчик ТГ-221</t>
+  </si>
+  <si>
+    <t>Кран-трубоукладчик ТГ-122</t>
+  </si>
+  <si>
+    <t>Кран-трубоукладчик</t>
   </si>
 </sst>
 </file>
@@ -875,15 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,7 +2754,7 @@
         <v>156</v>
       </c>
       <c r="D133" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,10 +2765,10 @@
         <v>148</v>
       </c>
       <c r="C134" t="s">
+        <v>158</v>
+      </c>
+      <c r="D134" t="s">
         <v>157</v>
-      </c>
-      <c r="D134" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,10 +2779,10 @@
         <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,25 +2793,49 @@
         <v>150</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>145</v>
+      </c>
       <c r="B137">
         <v>151</v>
       </c>
       <c r="C137" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" t="s">
         <v>163</v>
       </c>
-      <c r="D137" t="s">
-        <v>162</v>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>152</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>153</v>
+      </c>
+      <c r="C139" t="s">
+        <v>165</v>
+      </c>
+      <c r="D139" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/eo_models.xlsx
+++ b/uploads/eo_models.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="270">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,12 @@
     <t>eo_category_spec</t>
   </si>
   <si>
+    <t>type_tehniki</t>
+  </si>
+  <si>
+    <t>marka_oborudovania</t>
+  </si>
+  <si>
     <t>Автогрейдер 160AWD</t>
   </si>
   <si>
@@ -516,10 +522,313 @@
     <t>Кран-трубоукладчик ТГ-221</t>
   </si>
   <si>
+    <t>Кран-трубоукладчик</t>
+  </si>
+  <si>
     <t>Кран-трубоукладчик ТГ-122</t>
   </si>
   <si>
-    <t>Кран-трубоукладчик</t>
+    <t xml:space="preserve">Станок буровой PV-275 </t>
+  </si>
+  <si>
+    <t>Бульдозер D85A-21</t>
+  </si>
+  <si>
+    <t>Станок буровой ПСБУ-800</t>
+  </si>
+  <si>
+    <t>Станок буровой ROC L8</t>
+  </si>
+  <si>
+    <t>Каток дорожный CS76</t>
+  </si>
+  <si>
+    <t>Каток дорожный DM-617</t>
+  </si>
+  <si>
+    <t>Кран-трубоукладчик ТР 12</t>
+  </si>
+  <si>
+    <t>Погрузчик фронтальный Dressta 534</t>
+  </si>
+  <si>
+    <t>Погрузчик фронтальный S650</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный NTE200</t>
+  </si>
+  <si>
+    <t>Станок буровой D480</t>
+  </si>
+  <si>
+    <t>Тягач-буксировщик БелАЗ-7455В</t>
+  </si>
+  <si>
+    <t>Установка буровая БА15</t>
+  </si>
+  <si>
+    <t>Установка буровая УГБ-3УК</t>
+  </si>
+  <si>
+    <t>Экскаватор гидравлический 385</t>
+  </si>
+  <si>
+    <t>Экскаватор гидравлический R9200</t>
+  </si>
+  <si>
+    <t>Экскаватор  гидравлический ЕК 400</t>
+  </si>
+  <si>
+    <t>Бульдозер К-703МА Опороперевозчик</t>
+  </si>
+  <si>
+    <t>Бульдозер К-703МА Тягач</t>
+  </si>
+  <si>
+    <t>Щебнеразбрасыватель</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 785С (тягач)</t>
+  </si>
+  <si>
+    <t>KOMATSU HD785 (Вспм.машина)</t>
+  </si>
+  <si>
+    <t>KOMATSU РС1250-7 (Вспм.машина)</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 160</t>
+  </si>
+  <si>
+    <t>Вспомогательное оборудование</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 16M</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 18M3</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 24</t>
+  </si>
+  <si>
+    <t>ГС-25</t>
+  </si>
+  <si>
+    <t>ДЗ-98В</t>
+  </si>
+  <si>
+    <t>CATERPILLAR САТ 140М</t>
+  </si>
+  <si>
+    <t>KOMATSU GD825</t>
+  </si>
+  <si>
+    <t>TG230A</t>
+  </si>
+  <si>
+    <t>KOMATSU D275</t>
+  </si>
+  <si>
+    <t>KOMATSU D375</t>
+  </si>
+  <si>
+    <t>KOMATSU D65</t>
+  </si>
+  <si>
+    <t>CATERPILLAR D6R</t>
+  </si>
+  <si>
+    <t>К-702МБА</t>
+  </si>
+  <si>
+    <t>KOMATSU WD600</t>
+  </si>
+  <si>
+    <t>Т-11</t>
+  </si>
+  <si>
+    <t>CATERPILLAR D11R</t>
+  </si>
+  <si>
+    <t>KOMATSU D155</t>
+  </si>
+  <si>
+    <t>KOMATSU D475</t>
+  </si>
+  <si>
+    <t>KOMATSU D65/63</t>
+  </si>
+  <si>
+    <t>KOMATSU D85</t>
+  </si>
+  <si>
+    <t>CATERPILLAR D9R</t>
+  </si>
+  <si>
+    <t>МКСМ-1000</t>
+  </si>
+  <si>
+    <t>Прочее вспом</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 966</t>
+  </si>
+  <si>
+    <t>Основное оборудование</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 980</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 992</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 994</t>
+  </si>
+  <si>
+    <t>HYUNDAI HL780</t>
+  </si>
+  <si>
+    <t>KOMATSU WA200</t>
+  </si>
+  <si>
+    <t>KOMATSU WA400/70/30</t>
+  </si>
+  <si>
+    <t>KOMATSU WA500</t>
+  </si>
+  <si>
+    <t>KOMATSU WA600</t>
+  </si>
+  <si>
+    <t>KOMATSU WA800</t>
+  </si>
+  <si>
+    <t>KOMATSU WA900</t>
+  </si>
+  <si>
+    <t>БелАЗ 75182 (Самосвал)</t>
+  </si>
+  <si>
+    <t>БелАЗ 7540 (Самосвал)</t>
+  </si>
+  <si>
+    <t>БелАЗ (Вспомогательное)</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 777Е</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 777F</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 785С</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 789D</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 793D</t>
+  </si>
+  <si>
+    <t>KOMATSU 730</t>
+  </si>
+  <si>
+    <t>KOMATSU 830</t>
+  </si>
+  <si>
+    <t>KOMATSU HD1500</t>
+  </si>
+  <si>
+    <t>KOMATSU HD785</t>
+  </si>
+  <si>
+    <t>СБШ -250</t>
+  </si>
+  <si>
+    <t>SANDVIK DE810</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>PV-235</t>
+  </si>
+  <si>
+    <t>PV-351</t>
+  </si>
+  <si>
+    <t>SMARTROK_D65</t>
+  </si>
+  <si>
+    <t>ЕК-270</t>
+  </si>
+  <si>
+    <t>ЕК-450</t>
+  </si>
+  <si>
+    <t>LIEBHERR R950</t>
+  </si>
+  <si>
+    <t>LIEBHERR R974</t>
+  </si>
+  <si>
+    <t>KOMATSU РС1250</t>
+  </si>
+  <si>
+    <t>KOMATSU РС2000</t>
+  </si>
+  <si>
+    <t>KOMATSU РС220</t>
+  </si>
+  <si>
+    <t>KOMATSU РС400</t>
+  </si>
+  <si>
+    <t>KOMATSU РС4000</t>
+  </si>
+  <si>
+    <t>KOMATSU РС750</t>
+  </si>
+  <si>
+    <t>TEREX WX200</t>
+  </si>
+  <si>
+    <t>TEREX TLB_825</t>
+  </si>
+  <si>
+    <t>ЭКГ-10</t>
+  </si>
+  <si>
+    <t>ЭКГ-18</t>
+  </si>
+  <si>
+    <t>ЭКГ-20</t>
+  </si>
+  <si>
+    <t>ЭКГ-5</t>
+  </si>
+  <si>
+    <t>KOMATSU РС3000</t>
+  </si>
+  <si>
+    <t>WK-20</t>
+  </si>
+  <si>
+    <t>WK-35</t>
+  </si>
+  <si>
+    <t>CATERPILLAR 777D (Вспм.машина)</t>
+  </si>
+  <si>
+    <t>ДМ 62 Я</t>
+  </si>
+  <si>
+    <t>ТГ-122</t>
+  </si>
+  <si>
+    <t>К-703МА</t>
   </si>
 </sst>
 </file>
@@ -884,18 +1193,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +1220,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -917,13 +1235,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -931,13 +1255,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -945,13 +1275,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -959,13 +1295,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -973,13 +1315,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -987,13 +1335,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1001,13 +1355,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1015,13 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1029,13 +1395,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1043,13 +1415,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1057,13 +1435,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1071,13 +1455,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1085,13 +1475,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1099,13 +1495,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1113,13 +1515,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1127,13 +1535,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1141,13 +1555,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1155,13 +1575,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1169,13 +1595,19 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1183,13 +1615,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1197,13 +1635,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1211,13 +1655,19 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1225,13 +1675,19 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1239,13 +1695,19 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1253,13 +1715,19 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1267,13 +1735,19 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1281,13 +1755,19 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1295,13 +1775,19 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1309,13 +1795,19 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1323,13 +1815,19 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1337,13 +1835,19 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>37</v>
       </c>
@@ -1351,13 +1855,19 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>38</v>
       </c>
@@ -1365,13 +1875,19 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39</v>
       </c>
@@ -1379,13 +1895,19 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
         <v>41</v>
       </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>40</v>
       </c>
@@ -1393,13 +1915,19 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
@@ -1407,13 +1935,19 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
@@ -1421,13 +1955,19 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -1435,13 +1975,19 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -1449,13 +1995,19 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -1463,13 +2015,19 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
@@ -1477,13 +2035,19 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -1491,13 +2055,19 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>48</v>
       </c>
@@ -1505,13 +2075,19 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49</v>
       </c>
@@ -1519,13 +2095,19 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50</v>
       </c>
@@ -1533,13 +2115,19 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>51</v>
       </c>
@@ -1547,13 +2135,19 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>52</v>
       </c>
@@ -1561,13 +2155,19 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>53</v>
       </c>
@@ -1575,13 +2175,19 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>54</v>
       </c>
@@ -1589,13 +2195,19 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>55</v>
       </c>
@@ -1603,13 +2215,19 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56</v>
       </c>
@@ -1617,13 +2235,19 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>57</v>
       </c>
@@ -1631,13 +2255,19 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>58</v>
       </c>
@@ -1645,13 +2275,19 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>59</v>
       </c>
@@ -1659,13 +2295,19 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>60</v>
       </c>
@@ -1673,13 +2315,19 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E56" t="s">
+        <v>235</v>
+      </c>
+      <c r="F56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>61</v>
       </c>
@@ -1687,13 +2335,19 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E57" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>62</v>
       </c>
@@ -1701,13 +2355,19 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>63</v>
       </c>
@@ -1715,13 +2375,19 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>64</v>
       </c>
@@ -1729,13 +2395,19 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>65</v>
       </c>
@@ -1743,13 +2415,19 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>66</v>
       </c>
@@ -1757,13 +2435,19 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>67</v>
       </c>
@@ -1771,13 +2455,19 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E63" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>68</v>
       </c>
@@ -1785,13 +2475,19 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E64" t="s">
+        <v>240</v>
+      </c>
+      <c r="F64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>69</v>
       </c>
@@ -1799,13 +2495,19 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>70</v>
       </c>
@@ -1813,13 +2515,19 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>241</v>
+      </c>
+      <c r="F66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>71</v>
       </c>
@@ -1827,13 +2535,19 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E67" t="s">
+        <v>242</v>
+      </c>
+      <c r="F67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>72</v>
       </c>
@@ -1841,13 +2555,19 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
         <v>81</v>
       </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>243</v>
+      </c>
+      <c r="F68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>73</v>
       </c>
@@ -1855,13 +2575,19 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>244</v>
+      </c>
+      <c r="F69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>74</v>
       </c>
@@ -1869,13 +2595,19 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E70" t="s">
+        <v>245</v>
+      </c>
+      <c r="F70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>75</v>
       </c>
@@ -1883,13 +2615,19 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>246</v>
+      </c>
+      <c r="F71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>76</v>
       </c>
@@ -1897,13 +2635,19 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>246</v>
+      </c>
+      <c r="F72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>77</v>
       </c>
@@ -1911,13 +2655,19 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>78</v>
       </c>
@@ -1925,13 +2675,19 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>79</v>
       </c>
@@ -1939,13 +2695,19 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>80</v>
       </c>
@@ -1953,13 +2715,19 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>81</v>
       </c>
@@ -1967,13 +2735,19 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>82</v>
       </c>
@@ -1981,13 +2755,19 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>83</v>
       </c>
@@ -1995,13 +2775,19 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>84</v>
       </c>
@@ -2009,13 +2795,19 @@
         <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>85</v>
       </c>
@@ -2023,13 +2815,19 @@
         <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>86</v>
       </c>
@@ -2037,13 +2835,19 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>87</v>
       </c>
@@ -2051,13 +2855,19 @@
         <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E83" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>88</v>
       </c>
@@ -2065,13 +2875,19 @@
         <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>89</v>
       </c>
@@ -2079,13 +2895,19 @@
         <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>90</v>
       </c>
@@ -2093,13 +2915,19 @@
         <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>91</v>
       </c>
@@ -2107,13 +2935,19 @@
         <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>92</v>
       </c>
@@ -2121,13 +2955,19 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>93</v>
       </c>
@@ -2135,13 +2975,19 @@
         <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E89" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>94</v>
       </c>
@@ -2149,13 +2995,19 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>95</v>
       </c>
@@ -2163,13 +3015,19 @@
         <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E91" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>96</v>
       </c>
@@ -2177,13 +3035,19 @@
         <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E92" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>97</v>
       </c>
@@ -2191,13 +3055,19 @@
         <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E93" t="s">
+        <v>248</v>
+      </c>
+      <c r="F93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>98</v>
       </c>
@@ -2205,13 +3075,19 @@
         <v>104</v>
       </c>
       <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" t="s">
         <v>108</v>
       </c>
-      <c r="D94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>249</v>
+      </c>
+      <c r="F94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>99</v>
       </c>
@@ -2219,13 +3095,19 @@
         <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E95" t="s">
+        <v>250</v>
+      </c>
+      <c r="F95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>100</v>
       </c>
@@ -2233,13 +3115,19 @@
         <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E96" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>101</v>
       </c>
@@ -2247,13 +3135,19 @@
         <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E97" t="s">
+        <v>252</v>
+      </c>
+      <c r="F97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>102</v>
       </c>
@@ -2261,13 +3155,19 @@
         <v>108</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E98" t="s">
+        <v>253</v>
+      </c>
+      <c r="F98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>103</v>
       </c>
@@ -2275,13 +3175,19 @@
         <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E99" t="s">
+        <v>254</v>
+      </c>
+      <c r="F99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>104</v>
       </c>
@@ -2289,13 +3195,19 @@
         <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E100" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>105</v>
       </c>
@@ -2303,13 +3215,19 @@
         <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E101" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>106</v>
       </c>
@@ -2317,13 +3235,19 @@
         <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E102" t="s">
+        <v>256</v>
+      </c>
+      <c r="F102" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>107</v>
       </c>
@@ -2331,13 +3255,19 @@
         <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E103" t="s">
+        <v>257</v>
+      </c>
+      <c r="F103" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>108</v>
       </c>
@@ -2345,13 +3275,19 @@
         <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D104" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E104" t="s">
+        <v>251</v>
+      </c>
+      <c r="F104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>109</v>
       </c>
@@ -2359,13 +3295,19 @@
         <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E105" t="s">
+        <v>254</v>
+      </c>
+      <c r="F105" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>110</v>
       </c>
@@ -2373,13 +3315,19 @@
         <v>116</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E106" t="s">
+        <v>258</v>
+      </c>
+      <c r="F106" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>111</v>
       </c>
@@ -2387,13 +3335,19 @@
         <v>117</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E107" t="s">
+        <v>259</v>
+      </c>
+      <c r="F107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>112</v>
       </c>
@@ -2401,13 +3355,19 @@
         <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E108" t="s">
+        <v>260</v>
+      </c>
+      <c r="F108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>113</v>
       </c>
@@ -2415,13 +3375,19 @@
         <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E109" t="s">
+        <v>261</v>
+      </c>
+      <c r="F109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>114</v>
       </c>
@@ -2429,13 +3395,19 @@
         <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E110" t="s">
+        <v>262</v>
+      </c>
+      <c r="F110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>115</v>
       </c>
@@ -2443,13 +3415,19 @@
         <v>121</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E111" t="s">
+        <v>251</v>
+      </c>
+      <c r="F111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>116</v>
       </c>
@@ -2457,13 +3435,19 @@
         <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E112" t="s">
+        <v>251</v>
+      </c>
+      <c r="F112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>117</v>
       </c>
@@ -2471,13 +3455,19 @@
         <v>123</v>
       </c>
       <c r="C113" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E113" t="s">
+        <v>263</v>
+      </c>
+      <c r="F113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -2485,13 +3475,19 @@
         <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E114" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>119</v>
       </c>
@@ -2499,13 +3495,19 @@
         <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E115" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>120</v>
       </c>
@@ -2513,13 +3515,19 @@
         <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E116" t="s">
+        <v>265</v>
+      </c>
+      <c r="F116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>121</v>
       </c>
@@ -2527,13 +3535,19 @@
         <v>127</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D117" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E117" t="s">
+        <v>140</v>
+      </c>
+      <c r="F117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>122</v>
       </c>
@@ -2541,13 +3555,19 @@
         <v>128</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E118" t="s">
+        <v>141</v>
+      </c>
+      <c r="F118" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>123</v>
       </c>
@@ -2555,13 +3575,19 @@
         <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D119" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E119" t="s">
+        <v>142</v>
+      </c>
+      <c r="F119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>124</v>
       </c>
@@ -2569,13 +3595,19 @@
         <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E120" t="s">
+        <v>143</v>
+      </c>
+      <c r="F120" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>125</v>
       </c>
@@ -2583,13 +3615,19 @@
         <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>126</v>
       </c>
@@ -2597,13 +3635,19 @@
         <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D122" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E122" t="s">
+        <v>145</v>
+      </c>
+      <c r="F122" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>127</v>
       </c>
@@ -2611,13 +3655,19 @@
         <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D123" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E123" t="s">
+        <v>145</v>
+      </c>
+      <c r="F123" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>128</v>
       </c>
@@ -2625,13 +3675,19 @@
         <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E124" t="s">
+        <v>146</v>
+      </c>
+      <c r="F124" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>129</v>
       </c>
@@ -2639,13 +3695,19 @@
         <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="E125" t="s">
+        <v>148</v>
+      </c>
+      <c r="F125" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>130</v>
       </c>
@@ -2653,13 +3715,19 @@
         <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E126" t="s">
+        <v>150</v>
+      </c>
+      <c r="F126" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>131</v>
       </c>
@@ -2667,13 +3735,19 @@
         <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E127" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>132</v>
       </c>
@@ -2681,13 +3755,19 @@
         <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D128" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E128" t="s">
+        <v>243</v>
+      </c>
+      <c r="F128" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>137</v>
       </c>
@@ -2695,13 +3775,19 @@
         <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="E129" t="s">
+        <v>154</v>
+      </c>
+      <c r="F129" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>138</v>
       </c>
@@ -2709,13 +3795,19 @@
         <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E130" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>139</v>
       </c>
@@ -2723,13 +3815,19 @@
         <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E131" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>140</v>
       </c>
@@ -2737,13 +3835,19 @@
         <v>146</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D132" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E132" t="s">
+        <v>266</v>
+      </c>
+      <c r="F132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>141</v>
       </c>
@@ -2751,13 +3855,19 @@
         <v>147</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E133" t="s">
+        <v>231</v>
+      </c>
+      <c r="F133" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>142</v>
       </c>
@@ -2765,13 +3875,19 @@
         <v>148</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E134" t="s">
+        <v>231</v>
+      </c>
+      <c r="F134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>143</v>
       </c>
@@ -2779,13 +3895,19 @@
         <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E135" t="s">
+        <v>231</v>
+      </c>
+      <c r="F135" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>144</v>
       </c>
@@ -2793,13 +3915,19 @@
         <v>150</v>
       </c>
       <c r="C136" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E136" t="s">
+        <v>231</v>
+      </c>
+      <c r="F136" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>145</v>
       </c>
@@ -2807,35 +3935,520 @@
         <v>151</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="E137" t="s">
+        <v>267</v>
+      </c>
+      <c r="F137" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>146</v>
+      </c>
       <c r="B138">
         <v>152</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>147</v>
+      </c>
       <c r="B139">
         <v>153</v>
       </c>
       <c r="C139" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>148</v>
+      </c>
+      <c r="B140">
+        <v>154</v>
+      </c>
+      <c r="C140" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140" t="s">
+        <v>81</v>
+      </c>
+      <c r="E140" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>149</v>
+      </c>
+      <c r="B141">
+        <v>155</v>
+      </c>
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>170</v>
+      </c>
+      <c r="F141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>150</v>
+      </c>
+      <c r="B142">
+        <v>156</v>
+      </c>
+      <c r="C142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142" t="s">
+        <v>81</v>
+      </c>
+      <c r="E142" t="s">
+        <v>171</v>
+      </c>
+      <c r="F142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>151</v>
+      </c>
+      <c r="B143">
+        <v>157</v>
+      </c>
+      <c r="C143" t="s">
+        <v>172</v>
+      </c>
+      <c r="D143" t="s">
+        <v>81</v>
+      </c>
+      <c r="E143" t="s">
+        <v>172</v>
+      </c>
+      <c r="F143" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>152</v>
+      </c>
+      <c r="B144">
+        <v>158</v>
+      </c>
+      <c r="C144" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" t="s">
         <v>165</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E144" t="s">
+        <v>173</v>
+      </c>
+      <c r="F144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>153</v>
+      </c>
+      <c r="B145">
+        <v>159</v>
+      </c>
+      <c r="C145" t="s">
+        <v>174</v>
+      </c>
+      <c r="D145" t="s">
+        <v>165</v>
+      </c>
+      <c r="E145" t="s">
+        <v>174</v>
+      </c>
+      <c r="F145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>154</v>
+      </c>
+      <c r="B146">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>175</v>
+      </c>
+      <c r="D146" t="s">
+        <v>167</v>
+      </c>
+      <c r="E146" t="s">
+        <v>175</v>
+      </c>
+      <c r="F146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>155</v>
+      </c>
+      <c r="B147">
+        <v>161</v>
+      </c>
+      <c r="C147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" t="s">
+        <v>176</v>
+      </c>
+      <c r="F147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>156</v>
+      </c>
+      <c r="B148">
+        <v>162</v>
+      </c>
+      <c r="C148" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" t="s">
+        <v>177</v>
+      </c>
+      <c r="F148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>157</v>
+      </c>
+      <c r="B149">
+        <v>163</v>
+      </c>
+      <c r="C149" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" t="s">
+        <v>59</v>
+      </c>
+      <c r="E149" t="s">
+        <v>178</v>
+      </c>
+      <c r="F149" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>158</v>
+      </c>
+      <c r="B150">
+        <v>164</v>
+      </c>
+      <c r="C150" t="s">
+        <v>179</v>
+      </c>
+      <c r="D150" t="s">
+        <v>81</v>
+      </c>
+      <c r="E150" t="s">
+        <v>179</v>
+      </c>
+      <c r="F150" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>159</v>
+      </c>
+      <c r="B151">
+        <v>165</v>
+      </c>
+      <c r="C151" t="s">
+        <v>180</v>
+      </c>
+      <c r="D151" t="s">
+        <v>159</v>
+      </c>
+      <c r="E151" t="s">
+        <v>180</v>
+      </c>
+      <c r="F151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>160</v>
+      </c>
+      <c r="B152">
         <v>166</v>
+      </c>
+      <c r="C152" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" t="s">
+        <v>81</v>
+      </c>
+      <c r="E152" t="s">
+        <v>181</v>
+      </c>
+      <c r="F152" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>161</v>
+      </c>
+      <c r="B153">
+        <v>167</v>
+      </c>
+      <c r="C153" t="s">
+        <v>182</v>
+      </c>
+      <c r="D153" t="s">
+        <v>81</v>
+      </c>
+      <c r="E153" t="s">
+        <v>182</v>
+      </c>
+      <c r="F153" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>162</v>
+      </c>
+      <c r="B154">
+        <v>168</v>
+      </c>
+      <c r="C154" t="s">
+        <v>183</v>
+      </c>
+      <c r="D154" t="s">
+        <v>113</v>
+      </c>
+      <c r="E154" t="s">
+        <v>183</v>
+      </c>
+      <c r="F154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>163</v>
+      </c>
+      <c r="B155">
+        <v>169</v>
+      </c>
+      <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" t="s">
+        <v>115</v>
+      </c>
+      <c r="E155" t="s">
+        <v>184</v>
+      </c>
+      <c r="F155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>164</v>
+      </c>
+      <c r="B156">
+        <v>170</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>108</v>
+      </c>
+      <c r="E156" t="s">
+        <v>185</v>
+      </c>
+      <c r="F156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>165</v>
+      </c>
+      <c r="B157">
+        <v>171</v>
+      </c>
+      <c r="C157" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" t="s">
+        <v>269</v>
+      </c>
+      <c r="F157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>166</v>
+      </c>
+      <c r="B158">
+        <v>172</v>
+      </c>
+      <c r="C158" t="s">
+        <v>187</v>
+      </c>
+      <c r="D158" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" t="s">
+        <v>269</v>
+      </c>
+      <c r="F158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>167</v>
+      </c>
+      <c r="B159">
+        <v>173</v>
+      </c>
+      <c r="C159" t="s">
+        <v>188</v>
+      </c>
+      <c r="D159" t="s">
+        <v>188</v>
+      </c>
+      <c r="E159" t="s">
+        <v>231</v>
+      </c>
+      <c r="F159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>168</v>
+      </c>
+      <c r="B160">
+        <v>174</v>
+      </c>
+      <c r="C160" t="s">
+        <v>189</v>
+      </c>
+      <c r="D160" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
+        <v>189</v>
+      </c>
+      <c r="F160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>169</v>
+      </c>
+      <c r="B161">
+        <v>175</v>
+      </c>
+      <c r="C161" t="s">
+        <v>190</v>
+      </c>
+      <c r="D161" t="s">
+        <v>162</v>
+      </c>
+      <c r="E161" t="s">
+        <v>190</v>
+      </c>
+      <c r="F161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>176</v>
+      </c>
+      <c r="C162" t="s">
+        <v>191</v>
+      </c>
+      <c r="D162" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" t="s">
+        <v>251</v>
+      </c>
+      <c r="F162" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>